--- a/Data-Sources.xlsx
+++ b/Data-Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be22270b4e7d4ed7/Desktop/Geog458/volcanic-eruptions-storymap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{AE9EAF40-A019-4E18-9912-1431A160B901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F6A633EB-1E71-4004-8C6B-3A4255BEC087}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{AE9EAF40-A019-4E18-9912-1431A160B901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AB5EAD53-1F38-4F83-8196-62E5ED1ED8CA}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{50DD6BBD-57CF-4CCE-98F6-9FCF0F6E12AD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50DD6BBD-57CF-4CCE-98F6-9FCF0F6E12AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -170,6 +170,45 @@
   </si>
   <si>
     <t>epa.PNG</t>
+  </si>
+  <si>
+    <t>https://trib.com/news/state-and-regional/geologists-say-recent-earthquakes-not-tied-to-yellowstone-caldera/article_560e14d0-8627-567e-a51a-ade27f57e87c.html</t>
+  </si>
+  <si>
+    <t>yellowstonepop.jpg</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mount_Pinatubo</t>
+  </si>
+  <si>
+    <t>pinatubopop.jpg</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Huaynaputina</t>
+  </si>
+  <si>
+    <t>huaynaputinapop.jpg</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mount_Vesuvius</t>
+  </si>
+  <si>
+    <t>vesuviuspop.PNG</t>
+  </si>
+  <si>
+    <t>Impacts of volcanic eruption</t>
+  </si>
+  <si>
+    <t>https://www.nationalgeographic.org/encyclopedia/human-environmental-impact-volcanic-ash/</t>
+  </si>
+  <si>
+    <t>Photo by Hamzah Hanafi on Unsplash</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/RJvJI1gTE7o</t>
+  </si>
+  <si>
+    <t>volcanoend.jpg</t>
   </si>
 </sst>
 </file>
@@ -229,7 +268,6 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -237,6 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -554,209 +593,241 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F54A71-1DEF-4CB2-8A39-62CCDC315A54}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="35.54296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="35.54296875" style="4" customWidth="1"/>
     <col min="4" max="4" width="38.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="145" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3" t="s">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -773,8 +844,14 @@
     <hyperlink ref="C12" r:id="rId11" xr:uid="{133E8251-0A13-4872-BA60-2BC468B9385B}"/>
     <hyperlink ref="C13" r:id="rId12" xr:uid="{F5469F95-CDCD-4B91-9F32-09F98216C208}"/>
     <hyperlink ref="C14" r:id="rId13" xr:uid="{03E63279-2456-437D-80DF-83516CAFE5F6}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{1D592542-899D-4E22-9CD5-97B2ACF41ECB}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{E43078E3-3D8D-4989-891F-7098B6684A68}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{F99AF09F-9D91-4DFF-A860-90A166F9B06C}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{B962E61B-9C95-4AFE-A59D-47F0BB0A91E5}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{DA33AB13-91D8-407B-86FE-1F333E83F169}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{A2C38109-E93F-4CA1-820D-66A3A6427435}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>